--- a/Excel/Bergamo/season2_Bergamo.xlsx
+++ b/Excel/Bergamo/season2_Bergamo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,492 +515,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Cameron McAinsh</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>50%</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>11</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3</v>
-      </c>
-      <c r="M2" t="n">
-        <v>6</v>
-      </c>
-      <c r="N2" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="O2" t="n">
-        <v>27</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Cerro</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>50%</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>12</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3</v>
-      </c>
-      <c r="M3" t="n">
-        <v>6</v>
-      </c>
-      <c r="N3" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="O3" t="n">
-        <v>25</v>
-      </c>
-      <c r="P3" t="n">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Damiano Barbanera</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>50%</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>11</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2</v>
-      </c>
-      <c r="N4" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="O4" t="n">
-        <v>23</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Mazzu</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>50%</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>12</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="O5" t="n">
-        <v>23</v>
-      </c>
-      <c r="P5" t="n">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Ludovico Righi</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>50%</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>11</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="O6" t="n">
-        <v>21</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Wissam Rahal</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>50%</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>11</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="O7" t="n">
-        <v>21</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Andrea Scalambra</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>50%</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>12</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O8" t="n">
-        <v>19</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Davide Ang</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>50%</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>12</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O9" t="n">
-        <v>19</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Federico Paolucci</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>7</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>50%</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>12</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O10" t="n">
-        <v>19</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
